--- a/outputs/mvp/ind_8_5_1/ind_8_5_1.xlsx
+++ b/outputs/mvp/ind_8_5_1/ind_8_5_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,21 @@
       <c r="D2">
         <v>1.747033236442609</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -430,6 +445,16 @@
           <t>Feminino</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -451,6 +476,16 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -459,22 +494,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.52071467274624</v>
+        <v>3.67646247986477</v>
       </c>
       <c r="C5">
-        <v>2.905942329778865</v>
+        <v>3.176831284780333</v>
       </c>
       <c r="D5">
-        <v>4.135487015713616</v>
+        <v>4.176093674949207</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -485,22 +525,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.837079393761983</v>
+        <v>2.300025023794131</v>
       </c>
       <c r="C6">
-        <v>3.322855680298309</v>
+        <v>2.230766440270119</v>
       </c>
       <c r="D6">
-        <v>4.351303107225657</v>
+        <v>2.369283607318144</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -511,22 +556,27 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.268679483901102</v>
+        <v>0.2263210438230191</v>
       </c>
       <c r="C7">
-        <v>2.200832946630513</v>
+        <v>0.02371684264266885</v>
       </c>
       <c r="D7">
-        <v>2.33652602117169</v>
+        <v>0.4289252450033693</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -537,22 +587,27 @@
         </is>
       </c>
       <c r="B8">
-        <v>2.334099380719431</v>
+        <v>1.214677586541522</v>
       </c>
       <c r="C8">
-        <v>2.258949195565697</v>
+        <v>1.015567937132383</v>
       </c>
       <c r="D8">
-        <v>2.409249565873164</v>
+        <v>1.413787235950662</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -563,22 +618,27 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2556435204895688</v>
+        <v>1.201587873435931</v>
       </c>
       <c r="C9">
-        <v>0.05938379848072975</v>
+        <v>1.183645005361732</v>
       </c>
       <c r="D9">
-        <v>0.451903242498408</v>
+        <v>1.219530741510129</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -589,22 +649,27 @@
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.862351045794579</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.818952500873658</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.905749590715501</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -615,22 +680,27 @@
         </is>
       </c>
       <c r="B11">
-        <v>1.276493934759813</v>
+        <v>0.839560764280651</v>
       </c>
       <c r="C11">
-        <v>0.9504089878879374</v>
+        <v>0.818893949631421</v>
       </c>
       <c r="D11">
-        <v>1.602578881631688</v>
+        <v>0.8602275789298809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -641,22 +711,27 @@
         </is>
       </c>
       <c r="B12">
-        <v>1.153136880237891</v>
+        <v>3.52071467274624</v>
       </c>
       <c r="C12">
-        <v>0.9506977880769876</v>
+        <v>2.905942329778865</v>
       </c>
       <c r="D12">
-        <v>1.355575972398795</v>
+        <v>4.135487015713616</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -667,22 +742,27 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.166963479303334</v>
+        <v>3.837079393761983</v>
       </c>
       <c r="C13">
-        <v>1.148494018954071</v>
+        <v>3.322855680298309</v>
       </c>
       <c r="D13">
-        <v>1.185432939652598</v>
+        <v>4.351303107225657</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -693,22 +773,27 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.236451024854313</v>
+        <v>2.268679483901102</v>
       </c>
       <c r="C14">
-        <v>1.215944341672987</v>
+        <v>2.200832946630513</v>
       </c>
       <c r="D14">
-        <v>1.25695770803564</v>
+        <v>2.33652602117169</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -719,27 +804,27 @@
         </is>
       </c>
       <c r="B15">
-        <v>3.616801080520329</v>
+        <v>2.334099380719431</v>
       </c>
       <c r="C15">
-        <v>2.972465476339886</v>
+        <v>2.258949195565697</v>
       </c>
       <c r="D15">
-        <v>4.261136684700771</v>
+        <v>2.409249565873164</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -750,27 +835,27 @@
         </is>
       </c>
       <c r="B16">
-        <v>3.955071549933685</v>
+        <v>0.2556435204895688</v>
       </c>
       <c r="C16">
-        <v>3.409872458863549</v>
+        <v>0.05938379848072975</v>
       </c>
       <c r="D16">
-        <v>4.500270641003822</v>
+        <v>0.451903242498408</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -781,27 +866,27 @@
         </is>
       </c>
       <c r="B17">
-        <v>2.399787408226625</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.325014797965644</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2.474560018487606</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -812,27 +897,27 @@
         </is>
       </c>
       <c r="B18">
-        <v>2.487188361999684</v>
+        <v>1.276493934759813</v>
       </c>
       <c r="C18">
-        <v>2.402653931361318</v>
+        <v>0.9504089878879374</v>
       </c>
       <c r="D18">
-        <v>2.57172279263805</v>
+        <v>1.602578881631688</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -843,27 +928,27 @@
         </is>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.153136880237891</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.9506977880769876</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1.355575972398795</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -874,27 +959,27 @@
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.166963479303334</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.148494018954071</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.185432939652598</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -905,27 +990,27 @@
         </is>
       </c>
       <c r="B21">
-        <v>1.429938763227921</v>
+        <v>1.236451024854313</v>
       </c>
       <c r="C21">
-        <v>1.029670199914038</v>
+        <v>1.215944341672987</v>
       </c>
       <c r="D21">
-        <v>1.830207326541805</v>
+        <v>1.25695770803564</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -936,22 +1021,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>1.265121254449133</v>
+        <v>1.827726673440025</v>
       </c>
       <c r="C22">
-        <v>1.022866854700603</v>
+        <v>1.785089697283889</v>
       </c>
       <c r="D22">
-        <v>1.507375654197662</v>
+        <v>1.870363649596161</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -967,22 +1052,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>1.275038385006263</v>
+        <v>1.899262024750167</v>
       </c>
       <c r="C23">
-        <v>1.252315870116358</v>
+        <v>1.85344680611726</v>
       </c>
       <c r="D23">
-        <v>1.297760899896168</v>
+        <v>1.945077243383074</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -998,27 +1083,27 @@
         </is>
       </c>
       <c r="B24">
-        <v>1.366139379883072</v>
+        <v>0.8170094095555464</v>
       </c>
       <c r="C24">
-        <v>1.340911117485642</v>
+        <v>0.7956399916056426</v>
       </c>
       <c r="D24">
-        <v>1.391367642280501</v>
+        <v>0.8383788275054501</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1114,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.621585136210113</v>
+        <v>0.8602452421832127</v>
       </c>
       <c r="C25">
-        <v>1.101811961456614</v>
+        <v>0.8384036016371201</v>
       </c>
       <c r="D25">
-        <v>2.141358310963611</v>
+        <v>0.8820868827293054</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1060,17 +1145,17 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.924622671301138</v>
+        <v>3.782444538945005</v>
       </c>
       <c r="C26">
-        <v>1.116424417024148</v>
+        <v>3.25411431023128</v>
       </c>
       <c r="D26">
-        <v>2.732820925578129</v>
+        <v>4.310774767658732</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1080,7 +1165,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1176,17 @@
         </is>
       </c>
       <c r="B27">
-        <v>1.147145964432075</v>
+        <v>2.44130786680789</v>
       </c>
       <c r="C27">
-        <v>1.095614486508004</v>
+        <v>2.364266901008132</v>
       </c>
       <c r="D27">
-        <v>1.198677442356147</v>
+        <v>2.518348832607647</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1111,7 +1196,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1122,27 +1207,27 @@
         </is>
       </c>
       <c r="B28">
-        <v>1.203012987722859</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1.156123646392469</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1.249902329053249</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1153,27 +1238,27 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.3450552087345385</v>
+        <v>1.347139533804915</v>
       </c>
       <c r="C29">
-        <v>0.2884519807815901</v>
+        <v>1.101766771457537</v>
       </c>
       <c r="D29">
-        <v>0.401658436687487</v>
+        <v>1.592512296152292</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1184,27 +1269,27 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.5646930647285062</v>
+        <v>1.319861066421294</v>
       </c>
       <c r="C30">
-        <v>0.4209162682012427</v>
+        <v>1.297701031855552</v>
       </c>
       <c r="D30">
-        <v>0.7084698612557697</v>
+        <v>1.342021100987036</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1300,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.6186073224675294</v>
+        <v>1.784979902588488</v>
       </c>
       <c r="C31">
-        <v>0.4720588093714869</v>
+        <v>1.156487181375038</v>
       </c>
       <c r="D31">
-        <v>0.7651558355635718</v>
+        <v>2.413472623801937</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1246,22 +1331,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.6396499652426099</v>
+        <v>1.175731089628826</v>
       </c>
       <c r="C32">
-        <v>0.6273986875402869</v>
+        <v>1.128347741000306</v>
       </c>
       <c r="D32">
-        <v>0.6519012429449328</v>
+        <v>1.223114438257345</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1277,22 +1362,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.6859095037664813</v>
+        <v>0.3450552087345385</v>
       </c>
       <c r="C33">
-        <v>0.668432162591189</v>
+        <v>0.2884519807815901</v>
       </c>
       <c r="D33">
-        <v>0.7033868449417736</v>
+        <v>0.401658436687487</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1304,339 +1389,424 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B34">
-        <v>2.415078293996665</v>
+        <v>0.5913928423393471</v>
       </c>
       <c r="C34">
-        <v>2.367014080250367</v>
+        <v>0.457937718252575</v>
       </c>
       <c r="D34">
-        <v>2.463142507742963</v>
+        <v>0.7248479664261192</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B35">
-        <v>2.345481606731491</v>
+        <v>0.6640188055962384</v>
       </c>
       <c r="C35">
-        <v>2.300405217214257</v>
+        <v>0.6503922314350606</v>
       </c>
       <c r="D35">
-        <v>2.390557996248725</v>
+        <v>0.6776453797574161</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B36">
-        <v>2.487856970315425</v>
+        <v>3.616801080520329</v>
       </c>
       <c r="C36">
-        <v>2.429920559017544</v>
+        <v>2.972465476339886</v>
       </c>
       <c r="D36">
-        <v>2.545793381613306</v>
+        <v>4.261136684700771</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B37">
-        <v>3.57209095484308</v>
+        <v>3.955071549933685</v>
       </c>
       <c r="C37">
-        <v>2.64902394717759</v>
+        <v>3.409872458863549</v>
       </c>
       <c r="D37">
-        <v>4.49515796250857</v>
+        <v>4.500270641003822</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B38">
-        <v>3.466264375745322</v>
+        <v>2.399787408226625</v>
       </c>
       <c r="C38">
-        <v>2.870495421126879</v>
+        <v>2.325014797965644</v>
       </c>
       <c r="D38">
-        <v>4.062033330363765</v>
+        <v>2.474560018487606</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B39">
-        <v>3.169078780106314</v>
+        <v>2.487188361999684</v>
       </c>
       <c r="C39">
-        <v>3.086332728093157</v>
+        <v>2.402653931361318</v>
       </c>
       <c r="D39">
-        <v>3.251824832119472</v>
+        <v>2.57172279263805</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Branca</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B40">
-        <v>3.387620928898928</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>3.266580530754734</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>3.508661327043122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B41">
-        <v>4.504599357718327</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1.996024399862915</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>7.013174315573739</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B42">
-        <v>2.896115512427802</v>
+        <v>1.429938763227921</v>
       </c>
       <c r="C42">
-        <v>1.732365838713361</v>
+        <v>1.029670199914038</v>
       </c>
       <c r="D42">
-        <v>4.059865186142242</v>
+        <v>1.830207326541805</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B43">
-        <v>1.758127368269959</v>
+        <v>1.265121254449133</v>
       </c>
       <c r="C43">
-        <v>1.407343210541808</v>
+        <v>1.022866854700603</v>
       </c>
       <c r="D43">
-        <v>2.10891152599811</v>
+        <v>1.507375654197662</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B44">
-        <v>1.633205586048156</v>
+        <v>1.275038385006263</v>
       </c>
       <c r="C44">
-        <v>1.461052201255878</v>
+        <v>1.252315870116358</v>
       </c>
       <c r="D44">
-        <v>1.805358970840434</v>
+        <v>1.297760899896168</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B45">
-        <v>1.684703084818882</v>
+        <v>1.366139379883072</v>
       </c>
       <c r="C45">
-        <v>1.658401381222363</v>
+        <v>1.340911117485642</v>
       </c>
       <c r="D45">
-        <v>1.7110047884154</v>
+        <v>1.391367642280501</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B46">
-        <v>1.80874727588132</v>
+        <v>1.621585136210113</v>
       </c>
       <c r="C46">
-        <v>1.776788876081236</v>
+        <v>1.101811961456614</v>
       </c>
       <c r="D46">
-        <v>1.840705675681404</v>
+        <v>2.141358310963611</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B47">
-        <v>3.751713318759541</v>
+        <v>1.924622671301138</v>
       </c>
       <c r="C47">
-        <v>2.750940571891882</v>
+        <v>1.116424417024148</v>
       </c>
       <c r="D47">
-        <v>4.7524860656272</v>
+        <v>2.732820925578129</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1646,59 +1816,59 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B48">
-        <v>3.711784548720256</v>
+        <v>1.147145964432075</v>
       </c>
       <c r="C48">
-        <v>3.035628710577654</v>
+        <v>1.095614486508004</v>
       </c>
       <c r="D48">
-        <v>4.387940386862859</v>
+        <v>1.198677442356147</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B49">
-        <v>3.323995043286537</v>
+        <v>1.203012987722859</v>
       </c>
       <c r="C49">
-        <v>3.234072060496116</v>
+        <v>1.156123646392469</v>
       </c>
       <c r="D49">
-        <v>3.413918026076958</v>
+        <v>1.249902329053249</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1708,55 +1878,55 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B50">
-        <v>3.581158416290643</v>
+        <v>0.3450552087345385</v>
       </c>
       <c r="C50">
-        <v>3.445298218814689</v>
+        <v>0.2884519807815901</v>
       </c>
       <c r="D50">
-        <v>3.717018613766596</v>
+        <v>0.401658436687487</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B51">
-        <v>4.513947211194651</v>
+        <v>0.5646930647285062</v>
       </c>
       <c r="C51">
-        <v>2.000673332416909</v>
+        <v>0.4209162682012427</v>
       </c>
       <c r="D51">
-        <v>7.027221089972393</v>
+        <v>0.7084698612557697</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1765,29 +1935,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B52">
-        <v>2.932017459634563</v>
+        <v>0.6186073224675294</v>
       </c>
       <c r="C52">
-        <v>1.743495496717089</v>
+        <v>0.4720588093714869</v>
       </c>
       <c r="D52">
-        <v>4.120539422552038</v>
+        <v>0.7651558355635718</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1796,29 +1966,29 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B53">
-        <v>1.921805580705877</v>
+        <v>0.6396499652426099</v>
       </c>
       <c r="C53">
-        <v>1.513860112386778</v>
+        <v>0.6273986875402869</v>
       </c>
       <c r="D53">
-        <v>2.329751049024976</v>
+        <v>0.6519012429449328</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1827,29 +1997,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B54">
-        <v>1.817236630250423</v>
+        <v>0.6859095037664813</v>
       </c>
       <c r="C54">
-        <v>1.596735353973603</v>
+        <v>0.668432162591189</v>
       </c>
       <c r="D54">
-        <v>2.037737906527243</v>
+        <v>0.7033868449417736</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1858,12 +2028,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1874,27 +2044,27 @@
         </is>
       </c>
       <c r="B55">
-        <v>1.81034449216046</v>
+        <v>2.415078293996665</v>
       </c>
       <c r="C55">
-        <v>1.779268370870403</v>
+        <v>2.367014080250367</v>
       </c>
       <c r="D55">
-        <v>1.841420613450517</v>
+        <v>2.463142507742963</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1905,27 +2075,27 @@
         </is>
       </c>
       <c r="B56">
-        <v>1.966452601396095</v>
+        <v>2.345481606731491</v>
       </c>
       <c r="C56">
-        <v>1.927835425002316</v>
+        <v>2.300405217214257</v>
       </c>
       <c r="D56">
-        <v>2.005069777789874</v>
+        <v>2.390557996248725</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1936,27 +2106,27 @@
         </is>
       </c>
       <c r="B57">
-        <v>1.692884564599182</v>
+        <v>2.487856970315425</v>
       </c>
       <c r="C57">
-        <v>1.373312285298695</v>
+        <v>2.429920559017544</v>
       </c>
       <c r="D57">
-        <v>2.012456843899669</v>
+        <v>2.545793381613306</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1967,17 +2137,17 @@
         </is>
       </c>
       <c r="B58">
-        <v>1.519605140936368</v>
+        <v>3.525513231638032</v>
       </c>
       <c r="C58">
-        <v>1.131345892731198</v>
+        <v>2.903301696020439</v>
       </c>
       <c r="D58">
-        <v>1.907864389141537</v>
+        <v>4.147724767255625</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1987,7 +2157,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1998,17 +2168,17 @@
         </is>
       </c>
       <c r="B59">
-        <v>1.720543012925726</v>
+        <v>3.274621376302807</v>
       </c>
       <c r="C59">
-        <v>1.654654824818732</v>
+        <v>3.182337220294044</v>
       </c>
       <c r="D59">
-        <v>1.786431201032721</v>
+        <v>3.36690553231157</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2018,7 +2188,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2029,27 +2199,27 @@
         </is>
       </c>
       <c r="B60">
-        <v>1.85602286743507</v>
+        <v>3.852051753125827</v>
       </c>
       <c r="C60">
-        <v>1.777670461547772</v>
+        <v>2.054451547102256</v>
       </c>
       <c r="D60">
-        <v>1.934375273322369</v>
+        <v>5.649651959149398</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2060,27 +2230,27 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.837248905189623</v>
+        <v>1.700557750275655</v>
       </c>
       <c r="C61">
-        <v>0.837248905189623</v>
+        <v>1.478064140368462</v>
       </c>
       <c r="D61">
-        <v>0.837248905189623</v>
+        <v>1.923051360182847</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2091,27 +2261,27 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.7117809902544106</v>
+        <v>1.746019963695904</v>
       </c>
       <c r="C62">
-        <v>0.5876226763557414</v>
+        <v>1.719472247705111</v>
       </c>
       <c r="D62">
-        <v>0.8359393041530797</v>
+        <v>1.772567679686697</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2122,27 +2292,27 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.8510487737492446</v>
+        <v>2.593276509932458</v>
       </c>
       <c r="C63">
-        <v>0.7372321511968075</v>
+        <v>2.537899051225436</v>
       </c>
       <c r="D63">
-        <v>0.9648653963016817</v>
+        <v>2.64865396863948</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -2153,22 +2323,22 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.8542198789413262</v>
+        <v>1.257589132602151</v>
       </c>
       <c r="C64">
-        <v>0.7374505423019875</v>
+        <v>1.227675123686942</v>
       </c>
       <c r="D64">
-        <v>0.970989215580665</v>
+        <v>1.287503141517361</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2184,13 +2354,13 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.9568062750394234</v>
+        <v>3.57209095484308</v>
       </c>
       <c r="C65">
-        <v>0.9344543704738268</v>
+        <v>2.64902394717759</v>
       </c>
       <c r="D65">
-        <v>0.9791581796050199</v>
+        <v>4.49515796250857</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2199,12 +2369,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2215,25 +2385,1327 @@
         </is>
       </c>
       <c r="B66">
+        <v>3.466264375745322</v>
+      </c>
+      <c r="C66">
+        <v>2.870495421126879</v>
+      </c>
+      <c r="D66">
+        <v>4.062033330363765</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>3.169078780106314</v>
+      </c>
+      <c r="C67">
+        <v>3.086332728093157</v>
+      </c>
+      <c r="D67">
+        <v>3.251824832119472</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>3.387620928898928</v>
+      </c>
+      <c r="C68">
+        <v>3.266580530754734</v>
+      </c>
+      <c r="D68">
+        <v>3.508661327043122</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>4.504599357718327</v>
+      </c>
+      <c r="C69">
+        <v>1.996024399862915</v>
+      </c>
+      <c r="D69">
+        <v>7.013174315573739</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>2.896115512427802</v>
+      </c>
+      <c r="C70">
+        <v>1.732365838713361</v>
+      </c>
+      <c r="D70">
+        <v>4.059865186142242</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>1.758127368269959</v>
+      </c>
+      <c r="C71">
+        <v>1.407343210541808</v>
+      </c>
+      <c r="D71">
+        <v>2.10891152599811</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>1.633205586048156</v>
+      </c>
+      <c r="C72">
+        <v>1.461052201255878</v>
+      </c>
+      <c r="D72">
+        <v>1.805358970840434</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>1.684703084818882</v>
+      </c>
+      <c r="C73">
+        <v>1.658401381222363</v>
+      </c>
+      <c r="D73">
+        <v>1.7110047884154</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>1.80874727588132</v>
+      </c>
+      <c r="C74">
+        <v>1.776788876081236</v>
+      </c>
+      <c r="D74">
+        <v>1.840705675681404</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>2.506337385158159</v>
+      </c>
+      <c r="C75">
+        <v>2.454960875783828</v>
+      </c>
+      <c r="D75">
+        <v>2.557713894532489</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>2.686072187339385</v>
+      </c>
+      <c r="C76">
+        <v>2.618708480968842</v>
+      </c>
+      <c r="D76">
+        <v>2.753435893709927</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>1.216782019941771</v>
+      </c>
+      <c r="C77">
+        <v>1.188305995887452</v>
+      </c>
+      <c r="D77">
+        <v>1.24525804399609</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>1.294946603832164</v>
+      </c>
+      <c r="C78">
+        <v>1.261373260276989</v>
+      </c>
+      <c r="D78">
+        <v>1.328519947387339</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>3.734409419463347</v>
+      </c>
+      <c r="C79">
+        <v>3.049245122485553</v>
+      </c>
+      <c r="D79">
+        <v>4.419573716441141</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>3.447073095774166</v>
+      </c>
+      <c r="C80">
+        <v>3.345291764207568</v>
+      </c>
+      <c r="D80">
+        <v>3.548854427340764</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>3.877412499255451</v>
+      </c>
+      <c r="C81">
+        <v>2.06438440488045</v>
+      </c>
+      <c r="D81">
+        <v>5.690440593630453</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>1.874813098416003</v>
+      </c>
+      <c r="C82">
+        <v>1.610105779874704</v>
+      </c>
+      <c r="D82">
+        <v>2.139520416957301</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>1.886676972404601</v>
+      </c>
+      <c r="C83">
+        <v>1.854895075426539</v>
+      </c>
+      <c r="D83">
+        <v>1.918458869382663</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>1.605848937908565</v>
+      </c>
+      <c r="C84">
+        <v>1.31572149936088</v>
+      </c>
+      <c r="D84">
+        <v>1.895976376456249</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>1.791030672179308</v>
+      </c>
+      <c r="C85">
+        <v>1.722748481268077</v>
+      </c>
+      <c r="D85">
+        <v>1.859312863090538</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>0.7352698898093039</v>
+      </c>
+      <c r="C86">
+        <v>0.620654794718572</v>
+      </c>
+      <c r="D86">
+        <v>0.8498849849000357</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>0.8526868778099995</v>
+      </c>
+      <c r="C87">
+        <v>0.7687204492633639</v>
+      </c>
+      <c r="D87">
+        <v>0.9366533063566351</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.9857043066436789</v>
+      </c>
+      <c r="C88">
+        <v>0.9646201397469836</v>
+      </c>
+      <c r="D88">
+        <v>1.006788473540374</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>3.751713318759541</v>
+      </c>
+      <c r="C89">
+        <v>2.750940571891882</v>
+      </c>
+      <c r="D89">
+        <v>4.7524860656272</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>3.711784548720256</v>
+      </c>
+      <c r="C90">
+        <v>3.035628710577654</v>
+      </c>
+      <c r="D90">
+        <v>4.387940386862859</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>3.323995043286537</v>
+      </c>
+      <c r="C91">
+        <v>3.234072060496116</v>
+      </c>
+      <c r="D91">
+        <v>3.413918026076958</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>3.581158416290643</v>
+      </c>
+      <c r="C92">
+        <v>3.445298218814689</v>
+      </c>
+      <c r="D92">
+        <v>3.717018613766596</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>4.513947211194651</v>
+      </c>
+      <c r="C93">
+        <v>2.000673332416909</v>
+      </c>
+      <c r="D93">
+        <v>7.027221089972393</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>2.932017459634563</v>
+      </c>
+      <c r="C94">
+        <v>1.743495496717089</v>
+      </c>
+      <c r="D94">
+        <v>4.120539422552038</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>1.921805580705877</v>
+      </c>
+      <c r="C95">
+        <v>1.513860112386778</v>
+      </c>
+      <c r="D95">
+        <v>2.329751049024976</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>1.817236630250423</v>
+      </c>
+      <c r="C96">
+        <v>1.596735353973603</v>
+      </c>
+      <c r="D96">
+        <v>2.037737906527243</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>1.81034449216046</v>
+      </c>
+      <c r="C97">
+        <v>1.779268370870403</v>
+      </c>
+      <c r="D97">
+        <v>1.841420613450517</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>1.966452601396095</v>
+      </c>
+      <c r="C98">
+        <v>1.927835425002316</v>
+      </c>
+      <c r="D98">
+        <v>2.005069777789874</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>1.692884564599182</v>
+      </c>
+      <c r="C99">
+        <v>1.373312285298695</v>
+      </c>
+      <c r="D99">
+        <v>2.012456843899669</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>1.519605140936368</v>
+      </c>
+      <c r="C100">
+        <v>1.131345892731198</v>
+      </c>
+      <c r="D100">
+        <v>1.907864389141537</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>1.720543012925726</v>
+      </c>
+      <c r="C101">
+        <v>1.654654824818732</v>
+      </c>
+      <c r="D101">
+        <v>1.786431201032721</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>1.85602286743507</v>
+      </c>
+      <c r="C102">
+        <v>1.777670461547772</v>
+      </c>
+      <c r="D102">
+        <v>1.934375273322369</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0.837248905189623</v>
+      </c>
+      <c r="C103">
+        <v>0.837248905189623</v>
+      </c>
+      <c r="D103">
+        <v>0.837248905189623</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>0.7117809902544106</v>
+      </c>
+      <c r="C104">
+        <v>0.5876226763557414</v>
+      </c>
+      <c r="D104">
+        <v>0.8359393041530797</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>0.8510487737492446</v>
+      </c>
+      <c r="C105">
+        <v>0.7372321511968075</v>
+      </c>
+      <c r="D105">
+        <v>0.9648653963016817</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>0.8542198789413262</v>
+      </c>
+      <c r="C106">
+        <v>0.7374505423019875</v>
+      </c>
+      <c r="D106">
+        <v>0.970989215580665</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>0.9568062750394234</v>
+      </c>
+      <c r="C107">
+        <v>0.9344543704738268</v>
+      </c>
+      <c r="D107">
+        <v>0.9791581796050199</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B108">
         <v>1.012039986418266</v>
       </c>
-      <c r="C66">
+      <c r="C108">
         <v>0.9885912569965287</v>
       </c>
-      <c r="D66">
+      <c r="D108">
         <v>1.035488715840003</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Rural</t>
         </is>
